--- a/pred_ohlcv/54_21/2020-01-25 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-344547.4221228901</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-342927.4221228901</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-349580.6269228901</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-349598.6904228901</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-454802.4905228901</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-455288.9076228901</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-480055.8271556402</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-549716.1257556402</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-549361.3919556402</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-547995.6671556402</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-540627.0289556402</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-541886.0289556402</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-541366.3392556402</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-539303.3379556402</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-539672.5653556401</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-592518.2465556401</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-573800.6442556401</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-402377.72665564</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-439476.69791264</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-439431.91181264</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-417439.61201264</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-417426.08161264</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-417874.08161264</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-416727.08161264</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-422904.70501264</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-426084.6121761401</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-431318.7926761401</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-421329.6886761401</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-426277.7838761401</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-426269.7838761401</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-429269.7838761401</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-429159.5444761401</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-429174.0341761401</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-429043.1682761401</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-429259.1840761401</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-431289.2897761401</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-437654.4697761401</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-437121.2829761401</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-438011.4065761401</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-472057.4065761401</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-473718.4065761401</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-522240.7053761401</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-522762.9228761402</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-538068.3814761401</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-538589.3090761402</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-532438.4788761402</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-544702.2619761402</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1492600.32759684</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1516426.99109684</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1519618.08509684</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1519375.03089684</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1519375.03089684</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1533541.17299684</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1604218.28769684</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1600245.67357048</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1584588.77667048</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1603361.84157048</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1604261.84157048</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1604261.84157048</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1624658.91427048</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1621883.33067048</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1556205.316470481</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1567744.519170481</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1469866.02231221</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1572471.512512211</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1568422.938512211</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1568983.938512211</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1579038.053612211</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-344547.4221228901</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-342927.4221228901</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-349580.6269228901</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-350456.6269228901</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-348758.5392228901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-349598.6904228901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-454802.4905228901</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-455288.9076228901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-481424.0044228901</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-451888.8836213902</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-451888.8836213902</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-491492.7250213902</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-487052.8848556402</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-480055.8271556402</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-461282.7622556402</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-549716.1257556402</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-549361.3919556402</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-547995.6671556402</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-540627.0289556402</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-541886.0289556402</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-541366.3392556402</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-539303.3379556402</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-539672.5653556401</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-592518.2465556401</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-611477.6864556401</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-573800.6442556401</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-574462.8723556401</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-577750.06235564</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-432103.92645564</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-402377.72665564</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-439476.69791264</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-439431.91181264</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-417532.15321264</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-417439.61201264</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-417426.08161264</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-417874.08161264</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-416727.08161264</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-412727.08161264</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-412035.44101264</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-422567.44101264</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-422904.70501264</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-426084.6121761401</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-431318.7926761401</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-421329.6886761401</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-421352.0861761401</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-426277.7838761401</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-426269.7838761401</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-429269.7838761401</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-429159.5444761401</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-429174.0341761401</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-429079.0341761401</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-429043.1682761401</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-429259.1840761401</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-431289.2897761401</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-437654.4697761401</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-437121.2829761401</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-438011.4065761401</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-472057.4065761401</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-473718.4065761401</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-473918.4065761401</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-515251.8054761401</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-522240.7053761401</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-522762.9228761402</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-538068.3814761401</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-544702.2619761402</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1492600.32759684</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1496904.89499684</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1515398.38659684</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1516426.99109684</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1519618.08509684</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1519375.03089684</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1519375.03089684</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1533541.17299684</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1604218.28769684</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1600245.67357048</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1584588.77667048</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1603361.84157048</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1604261.84157048</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1604261.84157048</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1616070.53947048</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1621883.33067048</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1556205.316470481</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1567744.519170481</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1469866.02231221</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1487569.59861221</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1504651.481812211</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1572471.512512211</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1568422.938512211</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1568983.938512211</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1579038.053612211</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
